--- a/Data/Config.xlsxtemp.xlsx
+++ b/Data/Config.xlsxtemp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BARA\Documents\UiPath\SignedInvoiceStoring\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C905C2B-C686-415E-B6BB-1205C349AD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0E34C8-93F3-439E-A0FC-FE1DCC25CA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -198,12 +198,6 @@
     <t>Dynamic name does not support the Add Transaction Item Activity. If the change happened, the GetTransactionData Framework needs to be reconfigured. (Bookmarks: Add Transaction Item)</t>
   </si>
   <si>
-    <t>OCRImageScale</t>
-  </si>
-  <si>
-    <t>INT /dots per inch (DPI)</t>
-  </si>
-  <si>
     <t>Non Production/UCL/UCL_SignedInvoiceStoring</t>
   </si>
   <si>
@@ -217,6 +211,21 @@
   </si>
   <si>
     <t>Try to get new local file.</t>
+  </si>
+  <si>
+    <t>strInvoiceNumberMatchingRegEx</t>
+  </si>
+  <si>
+    <t>เลขท[ี่]{0,3}\s*\S*</t>
+  </si>
+  <si>
+    <t>strConnectionStringAssetName</t>
+  </si>
+  <si>
+    <t>UCLPMS_ConnectionString</t>
+  </si>
+  <si>
+    <t>For Get the secret of the connection string.</t>
   </si>
 </sst>
 </file>
@@ -274,18 +283,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -603,148 +623,163 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="43" style="4" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" style="4" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" style="4" customWidth="1"/>
+    <col min="27" max="16384" width="14.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="45">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
     <row r="5" spans="1:26" ht="30">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="45">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11">
-        <v>300</v>
-      </c>
-      <c r="C11" t="s">
-        <v>58</v>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1741,7 +1776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z989"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1794,7 +1829,7 @@
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1805,7 +1840,7 @@
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1868,10 +1903,10 @@
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
         <v>61</v>
-      </c>
-      <c r="B11" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
@@ -1934,7 +1969,7 @@
       <c r="B18" t="b">
         <v>0</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Data/Config.xlsxtemp.xlsx
+++ b/Data/Config.xlsxtemp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BARA\Documents\UiPath\SignedInvoiceStoring\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0E34C8-93F3-439E-A0FC-FE1DCC25CA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192550B3-9E67-42A0-8979-6DD0FA3EB4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -624,7 +624,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Config.xlsxtemp.xlsx
+++ b/Data/Config.xlsxtemp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BARA\Documents\UiPath\SignedInvoiceStoring\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192550B3-9E67-42A0-8979-6DD0FA3EB4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF0F4A9-75B6-44CC-90DB-CCD1F4DE6C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="90">
   <si>
     <t>Name</t>
   </si>
@@ -159,9 +159,6 @@
     <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
   </si>
   <si>
-    <t>STR_FOLDER_PATH</t>
-  </si>
-  <si>
     <t>use in Main-&gt; Initialization</t>
   </si>
   <si>
@@ -226,6 +223,94 @@
   </si>
   <si>
     <t>For Get the secret of the connection string.</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>strINVOICE_LM_STATUS_Column</t>
+  </si>
+  <si>
+    <t>strInvoiceValidStatus</t>
+  </si>
+  <si>
+    <t>log_validInvoiceProcessing</t>
+  </si>
+  <si>
+    <t>Processing Valid-Invoice ID:</t>
+  </si>
+  <si>
+    <t>Bookmark: Log Message log_validInvoiceProcessing</t>
+  </si>
+  <si>
+    <t>logE_UnexpectedDiverseKey</t>
+  </si>
+  <si>
+    <t>Unexpected dictInvoiceFileSetForInsert/currentKeyValuePairOfTextAndDataRow diverse key.</t>
+  </si>
+  <si>
+    <t>Bookmark: Throw logE_UnexpectedDiverseKey</t>
+  </si>
+  <si>
+    <t>strQueryUploadInvoice</t>
+  </si>
+  <si>
+    <t>logE_UnexpectedQueryResult</t>
+  </si>
+  <si>
+    <t>The updated file to SQL Server was not affected, Invoice No. @INVOICE_NO, Invoice ID @INVOICE_ID</t>
+  </si>
+  <si>
+    <t>Bookmark: Throw logE_UnexpectedQueryResult
+Parameter:
+@INVOICE_ID
+@INVOICE_NO</t>
+  </si>
+  <si>
+    <t>Update Successfully</t>
+  </si>
+  <si>
+    <t>log_successfullyUpdatedToSQL</t>
+  </si>
+  <si>
+    <t>Bookmark: Log Message log_successfullyUpdatedToSQL</t>
+  </si>
+  <si>
+    <t>strRawFilesFolderPath</t>
+  </si>
+  <si>
+    <t>C:\Users\BARA\Documents\UCL_F</t>
+  </si>
+  <si>
+    <t>strFinishProcessedFilesFolderPath</t>
+  </si>
+  <si>
+    <t>strFailureProcessFileFolderPath</t>
+  </si>
+  <si>
+    <t>C:\Users\BARA\Documents\UCL_E</t>
+  </si>
+  <si>
+    <t>AWaiting for Approval</t>
+  </si>
+  <si>
+    <t>Bookmark: Run Query Upload Invoice
+Query Parameters:
+$IN_INVOICE_ID$ = INVOICE_ID of the invoice.
+$IN_BASE64$ = converted base64 of the invoice file.
+Required output:
+RESULT_CODE
+RESULT_MESSAGES</t>
+  </si>
+  <si>
+    <t>declare @ResultCode nvarchar(10)
+	,@ResultMessages NVARCHAR(MAX)
+EXECUTE [dbo].[UPLOAD_AND_UPDATE_APPROVED_INVOICE] 
+   @INVOICE_ID = '$IN_INVOICE_ID$'
+  ,@BASE64 = '$IN_BASE64$'
+  ,@ResultCode = @ResultCode OUTPUT
+  ,@ResultMessages = @ResultMessages OUTPUT
+SELECT @ResultCode AS RESULT_CODE , @ResultMessages as RESULT_MESSAGES</t>
   </si>
 </sst>
 </file>
@@ -283,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -305,6 +390,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -621,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -675,7 +763,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -686,7 +774,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>32</v>
@@ -697,10 +785,10 @@
         <v>30</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="30">
@@ -716,89 +804,167 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="45">
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>56</v>
+        <v>84</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>52</v>
+        <v>59</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+    <row r="10" spans="1:26" ht="45">
       <c r="A10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="B11" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="4" t="s">
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="B15" s="4" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>65</v>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60">
+      <c r="A21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="180">
+      <c r="A22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -1765,6 +1931,10 @@
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
+    <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="1001" ht="14.25" customHeight="1"/>
+    <row r="1002" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1903,10 +2073,10 @@
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
@@ -1956,7 +2126,7 @@
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17">
         <v>2</v>
